--- a/files/SM1/K4/K4-P89-Adjectives2.xlsx
+++ b/files/SM1/K4/K4-P89-Adjectives2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346AECC6-EEA4-4C48-B36A-00ED0446EFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BBEEA-7281-4275-973E-8EFEA21AF1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3580" windowWidth="17720" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>iloinen</t>
   </si>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>adorable</t>
+  </si>
+  <si>
+    <t>tylsä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -530,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -754,6 +762,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
